--- a/data/Spring2018/db1-db6_motif_analysis/db1-db6_motif-analysis_BK20180208.xlsx
+++ b/data/Spring2018/db1-db6_motif_analysis/db1-db6_motif-analysis_BK20180208.xlsx
@@ -1,30 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandonklein/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandonklein/Desktop/GRNmap/2018-S1:PRESENT/GRNmap Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="13000" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="13000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="network_optimized_weights" sheetId="5" r:id="rId1"/>
     <sheet name="all_motifs" sheetId="11" r:id="rId2"/>
-    <sheet name="regulatory_chain" sheetId="12" r:id="rId3"/>
-    <sheet name="YHP1-YOX1_I1-FFLs" sheetId="14" r:id="rId4"/>
-    <sheet name="expanded_I1-FFLs" sheetId="13" r:id="rId5"/>
-    <sheet name="db1_ex-FFLs" sheetId="2" r:id="rId6"/>
-    <sheet name="db1_FFLs-only" sheetId="7" r:id="rId7"/>
-    <sheet name="db2_ex-FFLs" sheetId="3" r:id="rId8"/>
-    <sheet name="db2_FFLs-only" sheetId="8" r:id="rId9"/>
-    <sheet name="db4_ex-FFLs" sheetId="4" r:id="rId10"/>
-    <sheet name="db4_FFLs-only" sheetId="9" r:id="rId11"/>
-    <sheet name="db5_ex-FFLs" sheetId="6" r:id="rId12"/>
-    <sheet name="db5_FFLs-only" sheetId="10" r:id="rId13"/>
+    <sheet name="all_motifs+MCM1" sheetId="15" r:id="rId3"/>
+    <sheet name="all_motifs+MCM1+STB5" sheetId="16" r:id="rId4"/>
+    <sheet name="all_motifs+M,S+HP+SFP+GCR-N+MSN" sheetId="17" r:id="rId5"/>
+    <sheet name="regulatory_chain" sheetId="12" r:id="rId6"/>
+    <sheet name="YHP1-YOX1_I1-FFLs" sheetId="14" r:id="rId7"/>
+    <sheet name="expanded_I1-FFLs" sheetId="13" r:id="rId8"/>
+    <sheet name="db1_ex-FFLs" sheetId="2" r:id="rId9"/>
+    <sheet name="db1_FFLs-only" sheetId="7" r:id="rId10"/>
+    <sheet name="db2_ex-FFLs" sheetId="3" r:id="rId11"/>
+    <sheet name="db2_FFLs-only" sheetId="8" r:id="rId12"/>
+    <sheet name="db4_ex-FFLs" sheetId="4" r:id="rId13"/>
+    <sheet name="db4_FFLs-only" sheetId="9" r:id="rId14"/>
+    <sheet name="db5_ex-FFLs" sheetId="6" r:id="rId15"/>
+    <sheet name="db5_FFLs-only" sheetId="10" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="17">
   <si>
     <t>GLN3</t>
   </si>
@@ -67,11 +70,32 @@
   <si>
     <t>CIN5</t>
   </si>
+  <si>
+    <t>MCM1</t>
+  </si>
+  <si>
+    <t>ACE2</t>
+  </si>
+  <si>
+    <t>SWI5</t>
+  </si>
+  <si>
+    <t>STB5</t>
+  </si>
+  <si>
+    <t>SFP1</t>
+  </si>
+  <si>
+    <t>GCN4</t>
+  </si>
+  <si>
+    <t>MSN4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -431,7 +455,1683 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>-1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>-1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>-1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>-1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>-1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>-1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>-1</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>-0.96597253898403834</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.58598390517222165</v>
+      </c>
+      <c r="C4">
+        <v>1.2607629021335434</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.33141477534479491</v>
+      </c>
+      <c r="C5">
+        <v>1.4854047388247604</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.58871517912519322</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3.0815368706609108</v>
+      </c>
+      <c r="F4">
+        <v>-2.4749734585491163</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-3.207275682548163</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>-0.79269093959067749</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>-0.95404048864578028</v>
+      </c>
+      <c r="F7">
+        <v>-4.2947275761898167</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>-1.9301812265743241</v>
+      </c>
+      <c r="F8">
+        <v>-1.5367121737935678E-3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>-3.207275682548163</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>-0.79269093959067749</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-0.95404048864578028</v>
+      </c>
+      <c r="D5">
+        <v>-4.2947275761898167</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>-1.9301812265743241</v>
+      </c>
+      <c r="D6">
+        <v>-1.5367121737935678E-3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2.4528540312612748</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>-0.80809642163920803</v>
+      </c>
+      <c r="F4">
+        <v>-1.9366382104483413</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.4783345490142745</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.53162750316257434</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1.9303181472031512</v>
+      </c>
+      <c r="F7">
+        <v>-3.2881863889487377</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1.2626929066819845</v>
+      </c>
+      <c r="F8">
+        <v>-0.83512184363477837</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1.4783345490142745</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.53162750316257434</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1.9303181472031512</v>
+      </c>
+      <c r="D5">
+        <v>-3.2881863889487377</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1.2626929066819845</v>
+      </c>
+      <c r="D6">
+        <v>-0.83512184363477837</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -445,13 +2145,13 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -468,7 +2168,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -477,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -512,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>1.7985957147228482</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -520,7 +2220,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -529,13 +2229,13 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>-4.0433362593795641</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>-0.29369790618969877</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -549,13 +2249,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3.2242966372177571</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -584,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.43188011339303195</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -601,7 +2301,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -610,10 +2310,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2.890489259319224</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>-3.0399351541343487</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -633,13 +2333,13 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>1.9538210729151575</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>-1.5532206868639316</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -653,616 +2353,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>2.4528540312612748</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>-0.80809642163920803</v>
-      </c>
-      <c r="F4">
-        <v>-1.9366382104483413</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1.4783345490142745</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0.53162750316257434</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1.9303181472031512</v>
-      </c>
-      <c r="F7">
-        <v>-3.2881863889487377</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1.2626929066819845</v>
-      </c>
-      <c r="F8">
-        <v>-0.83512184363477837</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1.4783345490142745</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0.53162750316257434</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1.9303181472031512</v>
-      </c>
-      <c r="D5">
-        <v>-3.2881863889487377</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1.2626929066819845</v>
-      </c>
-      <c r="D6">
-        <v>-0.83512184363477837</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1.7985957147228482</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>-4.0433362593795641</v>
-      </c>
-      <c r="F4">
-        <v>-0.29369790618969877</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3.2242966372177571</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0.43188011339303195</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>2.890489259319224</v>
-      </c>
-      <c r="F7">
-        <v>-3.0399351541343487</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1.9538210729151575</v>
-      </c>
-      <c r="F8">
-        <v>-1.5532206868639316</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
@@ -1394,11 +2489,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1620,7 +2715,1702 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E643FCB-B556-824F-84FE-7F14515DD779}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>-1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7D481B-C588-774A-BE5B-4E1886E80061}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>-1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>-1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857C674E-EFF5-624A-9B90-A18157565CFF}">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>-1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>-1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>-1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>-1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>-1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>-1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>-1</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1719,8 +4509,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1819,8 +4609,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1995,8 +4785,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2187,483 +4977,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>-0.96597253898403834</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>0.58598390517222165</v>
-      </c>
-      <c r="C4">
-        <v>1.2607629021335434</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0.33141477534479491</v>
-      </c>
-      <c r="C5">
-        <v>1.4854047388247604</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0.58871517912519322</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>3.0815368706609108</v>
-      </c>
-      <c r="F4">
-        <v>-2.4749734585491163</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>-3.207275682548163</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>-0.79269093959067749</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>-0.95404048864578028</v>
-      </c>
-      <c r="F7">
-        <v>-4.2947275761898167</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>-1.9301812265743241</v>
-      </c>
-      <c r="F8">
-        <v>-1.5367121737935678E-3</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>-3.207275682548163</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>-0.79269093959067749</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>-0.95404048864578028</v>
-      </c>
-      <c r="D5">
-        <v>-4.2947275761898167</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>-1.9301812265743241</v>
-      </c>
-      <c r="D6">
-        <v>-1.5367121737935678E-3</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>